--- a/Baltico_VAE/Multi K-means del VAE/All spp VAE+mkm/output best unif/all_centroidi_annotated_16_2020_all_spp_mkm_vae_sd.xlsx
+++ b/Baltico_VAE/Multi K-means del VAE/All spp VAE+mkm/output best unif/all_centroidi_annotated_16_2020_all_spp_mkm_vae_sd.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laura\Documents\Risk Assessment Mar Baltico - NOVEMBRE\Risk assessment_novembre\Baltico_VAE\Multi K-means del VAE\All spp VAE+mkm\output best unif\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laura\Documents\Risk Assessment Mar Baltico - NOVEMBRE\Risk assessment_novembre\BalticEcosystemRiskAssessment\Baltico_VAE\Multi K-means del VAE\All spp VAE+mkm\output best unif\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2D971B-D755-42D3-8453-63CDE4617360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1080A2-4AB9-4A99-BD4F-5E633C2FF44E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-2460" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -777,7 +777,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -803,10 +803,7 @@
     <xf numFmtId="0" fontId="18" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1189,7 +1186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BO25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
@@ -4828,7 +4825,7 @@
       <c r="N21" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P21" s="11" t="s">
+      <c r="P21" s="10" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4836,43 +4833,43 @@
       <c r="A22" s="8">
         <v>4</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="K22" s="10" t="s">
+      <c r="C22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="L22" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="M22" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="N22" s="9" t="s">
+      <c r="L22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N22" s="2" t="s">
         <v>43</v>
       </c>
       <c r="O22" s="1">
@@ -4886,93 +4883,93 @@
       <c r="A23" s="8">
         <v>5</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="K23" s="10" t="s">
+      <c r="C23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K23" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="L23" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="M23" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="N23" s="9" t="s">
+      <c r="L23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N23" s="2" t="s">
         <v>43</v>
       </c>
       <c r="O23" s="1">
         <v>2</v>
       </c>
       <c r="P23" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="24" spans="1:67" ht="42.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="8">
         <v>9</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="I24" s="10" t="s">
+      <c r="D24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I24" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="J24" s="10" t="s">
+      <c r="J24" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="K24" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="L24" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="M24" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="N24" s="9" t="s">
+      <c r="K24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N24" s="2" t="s">
         <v>41</v>
       </c>
       <c r="O24" s="1">
@@ -4986,50 +4983,50 @@
       <c r="A25" s="8">
         <v>12</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="I25" s="10" t="s">
+      <c r="D25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I25" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="J25" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="L25" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="M25" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="N25" s="9" t="s">
+      <c r="J25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N25" s="2" t="s">
         <v>43</v>
       </c>
       <c r="O25" s="1">
         <v>3</v>
       </c>
       <c r="P25" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
